--- a/backend/dados_exemplo.xlsx
+++ b/backend/dados_exemplo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/A7C850682481644D/Área de Trabalho/Dados/Manutenção/Dashboard Manutenção/PCM Hub/backend/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a7c850682481644d/Área de Trabalho/Dados/Manutenção/Dashboard Manutenção/PCM-Hub/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1134" documentId="11_AD4D361C20488DEA4E38A069345959105BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1ABA6E0-81D3-421E-B8E5-9625B51B892D}"/>
+  <xr:revisionPtr revIDLastSave="1136" documentId="11_AD4D361C20488DEA4E38A069345959105BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07137001-9506-4EB4-B025-3D885C827E94}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="875" firstSheet="9" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="875" firstSheet="9" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="funcoes" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="1035">
   <si>
     <t>funcao</t>
   </si>
@@ -3147,6 +3147,18 @@
   </si>
   <si>
     <t>motivos</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.7</t>
   </si>
 </sst>
 </file>
@@ -3292,10 +3304,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4837,7 +4845,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C6BA5D-8075-4143-9845-E924EBCBCE26}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4937,6 +4947,9 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>1016</v>
+      </c>
       <c r="B10" t="s">
         <v>995</v>
       </c>
@@ -4945,6 +4958,9 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>1014</v>
+      </c>
       <c r="B11" t="s">
         <v>996</v>
       </c>
@@ -4954,7 +4970,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="B12" t="s">
         <v>997</v>
@@ -4965,7 +4981,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>1016</v>
+        <v>1032</v>
       </c>
       <c r="B13" t="s">
         <v>998</v>
@@ -4976,7 +4992,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>1014</v>
+        <v>1033</v>
       </c>
       <c r="B14" t="s">
         <v>999</v>
@@ -4986,6 +5002,9 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>1034</v>
+      </c>
       <c r="B15" t="s">
         <v>1000</v>
       </c>
@@ -5125,6 +5144,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
